--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Tnfsf11</t>
+  </si>
+  <si>
+    <t>Tnfrsf11a</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnfsf11</t>
-  </si>
-  <si>
-    <t>Tnfrsf11a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,10 +543,10 @@
         <v>5.071603</v>
       </c>
       <c r="I2">
-        <v>0.9339531815638827</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9339531815638826</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.581695333333333</v>
+        <v>2.714172666666666</v>
       </c>
       <c r="N2">
-        <v>10.745086</v>
+        <v>8.142517999999999</v>
       </c>
       <c r="O2">
-        <v>0.1339447631176841</v>
+        <v>0.1284219099517179</v>
       </c>
       <c r="P2">
-        <v>0.1339447631176841</v>
+        <v>0.1284219099517179</v>
       </c>
       <c r="Q2">
-        <v>6.054978932539776</v>
+        <v>4.588402079594887</v>
       </c>
       <c r="R2">
-        <v>54.49481039285799</v>
+        <v>41.29561871635399</v>
       </c>
       <c r="S2">
-        <v>0.1250981376675816</v>
+        <v>0.1284219099517179</v>
       </c>
       <c r="T2">
-        <v>0.1250981376675817</v>
+        <v>0.1284219099517179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,40 +605,40 @@
         <v>5.071603</v>
       </c>
       <c r="I3">
-        <v>0.9339531815638827</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9339531815638826</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.101139</v>
+        <v>0.2125253333333333</v>
       </c>
       <c r="N3">
-        <v>0.303417</v>
+        <v>0.6375759999999999</v>
       </c>
       <c r="O3">
-        <v>0.003782298084061714</v>
+        <v>0.01005570115526628</v>
       </c>
       <c r="P3">
-        <v>0.003782298084061715</v>
+        <v>0.01005570115526628</v>
       </c>
       <c r="Q3">
-        <v>0.170978951939</v>
+        <v>0.3592813727031111</v>
       </c>
       <c r="R3">
-        <v>1.538810567451</v>
+        <v>3.233532354327999</v>
       </c>
       <c r="S3">
-        <v>0.003532489329232416</v>
+        <v>0.01005570115526628</v>
       </c>
       <c r="T3">
-        <v>0.003532489329232416</v>
+        <v>0.01005570115526628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,10 +667,10 @@
         <v>5.071603</v>
       </c>
       <c r="I4">
-        <v>0.9339531815638827</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9339531815638826</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,400 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.057258</v>
+        <v>18.208112</v>
       </c>
       <c r="N4">
-        <v>69.171774</v>
+        <v>54.624336</v>
       </c>
       <c r="O4">
-        <v>0.8622729387982543</v>
+        <v>0.8615223888930159</v>
       </c>
       <c r="P4">
-        <v>0.8622729387982543</v>
+        <v>0.8615223888930159</v>
       </c>
       <c r="Q4">
-        <v>38.97908628152467</v>
+        <v>30.78143848117866</v>
       </c>
       <c r="R4">
-        <v>350.811776533722</v>
+        <v>277.032946330608</v>
       </c>
       <c r="S4">
-        <v>0.8053225545670687</v>
+        <v>0.8615223888930159</v>
       </c>
       <c r="T4">
-        <v>0.8053225545670686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1047943333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.314383</v>
-      </c>
-      <c r="I5">
-        <v>0.05789471358061704</v>
-      </c>
-      <c r="J5">
-        <v>0.05789471358061703</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>3.581695333333333</v>
-      </c>
-      <c r="N5">
-        <v>10.745086</v>
-      </c>
-      <c r="O5">
-        <v>0.1339447631176841</v>
-      </c>
-      <c r="P5">
-        <v>0.1339447631176841</v>
-      </c>
-      <c r="Q5">
-        <v>0.3753413746597777</v>
-      </c>
-      <c r="R5">
-        <v>3.378072371937999</v>
-      </c>
-      <c r="S5">
-        <v>0.007754693696321915</v>
-      </c>
-      <c r="T5">
-        <v>0.007754693696321916</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1047943333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.314383</v>
-      </c>
-      <c r="I6">
-        <v>0.05789471358061704</v>
-      </c>
-      <c r="J6">
-        <v>0.05789471358061703</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.101139</v>
-      </c>
-      <c r="N6">
-        <v>0.303417</v>
-      </c>
-      <c r="O6">
-        <v>0.003782298084061714</v>
-      </c>
-      <c r="P6">
-        <v>0.003782298084061715</v>
-      </c>
-      <c r="Q6">
-        <v>0.010598794079</v>
-      </c>
-      <c r="R6">
-        <v>0.09538914671099999</v>
-      </c>
-      <c r="S6">
-        <v>0.0002189750642532695</v>
-      </c>
-      <c r="T6">
-        <v>0.0002189750642532695</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1047943333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.314383</v>
-      </c>
-      <c r="I7">
-        <v>0.05789471358061704</v>
-      </c>
-      <c r="J7">
-        <v>0.05789471358061703</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>23.057258</v>
-      </c>
-      <c r="N7">
-        <v>69.171774</v>
-      </c>
-      <c r="O7">
-        <v>0.8622729387982543</v>
-      </c>
-      <c r="P7">
-        <v>0.8622729387982543</v>
-      </c>
-      <c r="Q7">
-        <v>2.416269980604667</v>
-      </c>
-      <c r="R7">
-        <v>21.746429825442</v>
-      </c>
-      <c r="S7">
-        <v>0.04992104482004186</v>
-      </c>
-      <c r="T7">
-        <v>0.04992104482004185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.014756</v>
-      </c>
-      <c r="H8">
-        <v>0.044268</v>
-      </c>
-      <c r="I8">
-        <v>0.008152104855500315</v>
-      </c>
-      <c r="J8">
-        <v>0.008152104855500315</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>3.581695333333333</v>
-      </c>
-      <c r="N8">
-        <v>10.745086</v>
-      </c>
-      <c r="O8">
-        <v>0.1339447631176841</v>
-      </c>
-      <c r="P8">
-        <v>0.1339447631176841</v>
-      </c>
-      <c r="Q8">
-        <v>0.05285149633866666</v>
-      </c>
-      <c r="R8">
-        <v>0.4756634670479999</v>
-      </c>
-      <c r="S8">
-        <v>0.001091931753780512</v>
-      </c>
-      <c r="T8">
-        <v>0.001091931753780512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.014756</v>
-      </c>
-      <c r="H9">
-        <v>0.044268</v>
-      </c>
-      <c r="I9">
-        <v>0.008152104855500315</v>
-      </c>
-      <c r="J9">
-        <v>0.008152104855500315</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.101139</v>
-      </c>
-      <c r="N9">
-        <v>0.303417</v>
-      </c>
-      <c r="O9">
-        <v>0.003782298084061714</v>
-      </c>
-      <c r="P9">
-        <v>0.003782298084061715</v>
-      </c>
-      <c r="Q9">
-        <v>0.001492407084</v>
-      </c>
-      <c r="R9">
-        <v>0.013431663756</v>
-      </c>
-      <c r="S9">
-        <v>3.083369057602904E-05</v>
-      </c>
-      <c r="T9">
-        <v>3.083369057602904E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.014756</v>
-      </c>
-      <c r="H10">
-        <v>0.044268</v>
-      </c>
-      <c r="I10">
-        <v>0.008152104855500315</v>
-      </c>
-      <c r="J10">
-        <v>0.008152104855500315</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>23.057258</v>
-      </c>
-      <c r="N10">
-        <v>69.171774</v>
-      </c>
-      <c r="O10">
-        <v>0.8622729387982543</v>
-      </c>
-      <c r="P10">
-        <v>0.8622729387982543</v>
-      </c>
-      <c r="Q10">
-        <v>0.340232899048</v>
-      </c>
-      <c r="R10">
-        <v>3.062096091432</v>
-      </c>
-      <c r="S10">
-        <v>0.007029339411143774</v>
-      </c>
-      <c r="T10">
-        <v>0.007029339411143774</v>
+        <v>0.8615223888930159</v>
       </c>
     </row>
   </sheetData>
